--- a/Code/Results/Cases/Case_8_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_9/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011245716551692</v>
+        <v>1.008746421689623</v>
       </c>
       <c r="D2">
-        <v>1.031117283237208</v>
+        <v>1.028837807671329</v>
       </c>
       <c r="E2">
-        <v>1.025931964550121</v>
+        <v>1.023853225886624</v>
       </c>
       <c r="F2">
-        <v>1.036390436431717</v>
+        <v>1.034483000725765</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047504548910585</v>
+        <v>1.04658539579835</v>
       </c>
       <c r="J2">
-        <v>1.033095195103886</v>
+        <v>1.030668639214842</v>
       </c>
       <c r="K2">
-        <v>1.042159480415157</v>
+        <v>1.039909489610042</v>
       </c>
       <c r="L2">
-        <v>1.037041471202778</v>
+        <v>1.034989956123966</v>
       </c>
       <c r="M2">
-        <v>1.047365046924713</v>
+        <v>1.045481959659843</v>
       </c>
       <c r="N2">
-        <v>1.034562308778612</v>
+        <v>1.026792854226859</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.046058626939175</v>
+        <v>1.044568299491414</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040880686941854</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039298507823375</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022623911328198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015014367700784</v>
+        <v>1.012190462420243</v>
       </c>
       <c r="D3">
-        <v>1.033592340862229</v>
+        <v>1.031024387591812</v>
       </c>
       <c r="E3">
-        <v>1.028837532802616</v>
+        <v>1.026484125129713</v>
       </c>
       <c r="F3">
-        <v>1.039125102175613</v>
+        <v>1.036972709441638</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048100377284012</v>
+        <v>1.047058824383086</v>
       </c>
       <c r="J3">
-        <v>1.035103929252124</v>
+        <v>1.03235423104881</v>
       </c>
       <c r="K3">
-        <v>1.043812712554552</v>
+        <v>1.041275117247183</v>
       </c>
       <c r="L3">
-        <v>1.039114263244325</v>
+        <v>1.036788990124653</v>
       </c>
       <c r="M3">
-        <v>1.04928069690078</v>
+        <v>1.047153402524121</v>
       </c>
       <c r="N3">
-        <v>1.036573895559741</v>
+        <v>1.027737924657176</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047574722320473</v>
+        <v>1.045891125846108</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042047002147113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040261185671358</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022894175908663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017412681522522</v>
+        <v>1.014384093462581</v>
       </c>
       <c r="D4">
-        <v>1.035170664816945</v>
+        <v>1.032420214602203</v>
       </c>
       <c r="E4">
-        <v>1.03069256830023</v>
+        <v>1.028165723278735</v>
       </c>
       <c r="F4">
-        <v>1.040871708262912</v>
+        <v>1.038564576025969</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048469872406153</v>
+        <v>1.047350777184325</v>
       </c>
       <c r="J4">
-        <v>1.036381218835712</v>
+        <v>1.033426874738806</v>
       </c>
       <c r="K4">
-        <v>1.044862362116347</v>
+        <v>1.04214248961161</v>
       </c>
       <c r="L4">
-        <v>1.040434152878205</v>
+        <v>1.037935693869743</v>
       </c>
       <c r="M4">
-        <v>1.050500657062211</v>
+        <v>1.048218816313836</v>
       </c>
       <c r="N4">
-        <v>1.037852999041047</v>
+        <v>1.028339326268262</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048540229006978</v>
+        <v>1.046734322698438</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042790081893618</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040875465612328</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023063490454584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018414872847739</v>
+        <v>1.015301041138495</v>
       </c>
       <c r="D5">
-        <v>1.035832812613282</v>
+        <v>1.033006318676243</v>
       </c>
       <c r="E5">
-        <v>1.031469618867819</v>
+        <v>1.028870501057142</v>
       </c>
       <c r="F5">
-        <v>1.041603606387837</v>
+        <v>1.03923200448617</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048623296035936</v>
+        <v>1.047471854436445</v>
       </c>
       <c r="J5">
-        <v>1.036916149946669</v>
+        <v>1.033876388956953</v>
       </c>
       <c r="K5">
-        <v>1.045302923501586</v>
+        <v>1.042507025619304</v>
       </c>
       <c r="L5">
-        <v>1.040987046539557</v>
+        <v>1.038416349171545</v>
       </c>
       <c r="M5">
-        <v>1.051011881237803</v>
+        <v>1.048665590051193</v>
       </c>
       <c r="N5">
-        <v>1.038388689815538</v>
+        <v>1.02859135559497</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048944824107301</v>
+        <v>1.047087911047638</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043108734208698</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041141083504885</v>
+      </c>
+      <c r="S5">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T5">
+        <v>1.023134535063049</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018586616183097</v>
+        <v>1.015458027873857</v>
       </c>
       <c r="D6">
-        <v>1.035948600914444</v>
+        <v>1.033109048399342</v>
       </c>
       <c r="E6">
-        <v>1.031603444301739</v>
+        <v>1.02899182439815</v>
       </c>
       <c r="F6">
-        <v>1.041729796859515</v>
+        <v>1.039347074471445</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04865113280368</v>
+        <v>1.047494122229178</v>
       </c>
       <c r="J6">
-        <v>1.037009579968603</v>
+        <v>1.033955033615873</v>
       </c>
       <c r="K6">
-        <v>1.045381494681427</v>
+        <v>1.042572540327754</v>
       </c>
       <c r="L6">
-        <v>1.041083243989646</v>
+        <v>1.038500050446719</v>
       </c>
       <c r="M6">
-        <v>1.051101025086987</v>
+        <v>1.048743616435629</v>
       </c>
       <c r="N6">
-        <v>1.038482252518819</v>
+        <v>1.028635449277823</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049015374669642</v>
+        <v>1.047149663139125</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043172997910308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04119699627019</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023147823996284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017436913683081</v>
+        <v>1.014427245539181</v>
       </c>
       <c r="D7">
-        <v>1.035192763748186</v>
+        <v>1.032455742067755</v>
       </c>
       <c r="E7">
-        <v>1.03071292193941</v>
+        <v>1.028202258433193</v>
       </c>
       <c r="F7">
-        <v>1.040891218869456</v>
+        <v>1.038597281234939</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048478118435776</v>
+        <v>1.047365323860823</v>
       </c>
       <c r="J7">
-        <v>1.036398927821769</v>
+        <v>1.033463006354496</v>
       </c>
       <c r="K7">
-        <v>1.04488135087692</v>
+        <v>1.042174745394898</v>
       </c>
       <c r="L7">
-        <v>1.04045139663988</v>
+        <v>1.037968926041978</v>
       </c>
       <c r="M7">
-        <v>1.050517109943455</v>
+        <v>1.048248309240137</v>
       </c>
       <c r="N7">
-        <v>1.037870733175895</v>
+        <v>1.028411718876217</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048553250216089</v>
+        <v>1.046757664172179</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04282353804171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040920328268952</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023073124467863</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012541435072664</v>
+        <v>1.009996789669964</v>
       </c>
       <c r="D8">
-        <v>1.031975093515036</v>
+        <v>1.029644591752459</v>
       </c>
       <c r="E8">
-        <v>1.026931705693432</v>
+        <v>1.024815267759711</v>
       </c>
       <c r="F8">
-        <v>1.037331595239123</v>
+        <v>1.03538658489821</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047716990553628</v>
+        <v>1.046778224716101</v>
       </c>
       <c r="J8">
-        <v>1.033791988064451</v>
+        <v>1.031318927757122</v>
       </c>
       <c r="K8">
-        <v>1.042738683824728</v>
+        <v>1.040437439650984</v>
       </c>
       <c r="L8">
-        <v>1.037758820501727</v>
+        <v>1.03566927299087</v>
       </c>
       <c r="M8">
-        <v>1.048028559371064</v>
+        <v>1.046107642514916</v>
       </c>
       <c r="N8">
-        <v>1.035260091265101</v>
+        <v>1.027315517491447</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046583748356913</v>
+        <v>1.045063482578556</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041313058036791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039696932799488</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022736490973882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003575889798001</v>
+        <v>1.001829101769729</v>
       </c>
       <c r="D9">
-        <v>1.02610019597751</v>
+        <v>1.02447270632141</v>
       </c>
       <c r="E9">
-        <v>1.020053153179459</v>
+        <v>1.018610298149598</v>
       </c>
       <c r="F9">
-        <v>1.03086136781671</v>
+        <v>1.029515958034184</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046240955222214</v>
+        <v>1.04560030112735</v>
       </c>
       <c r="J9">
-        <v>1.029003003044</v>
+        <v>1.027317434666632</v>
       </c>
       <c r="K9">
-        <v>1.038783547410895</v>
+        <v>1.037180828088504</v>
       </c>
       <c r="L9">
-        <v>1.032829049463396</v>
+        <v>1.031408483478436</v>
       </c>
       <c r="M9">
-        <v>1.043472826028533</v>
+        <v>1.042147645975437</v>
       </c>
       <c r="N9">
-        <v>1.030464305336617</v>
+        <v>1.025091127018816</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042978212107856</v>
+        <v>1.04192942377912</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038513363124388</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037390853762355</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022078471165826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9974292371301684</v>
+        <v>0.9963392016481663</v>
       </c>
       <c r="D10">
-        <v>1.022113856209788</v>
+        <v>1.021045809725959</v>
       </c>
       <c r="E10">
-        <v>1.015396898255855</v>
+        <v>1.014507699283165</v>
       </c>
       <c r="F10">
-        <v>1.026518521747617</v>
+        <v>1.025660222012369</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04519884623955</v>
+        <v>1.044797662361452</v>
       </c>
       <c r="J10">
-        <v>1.025745223995789</v>
+        <v>1.024698820306957</v>
       </c>
       <c r="K10">
-        <v>1.036094996325734</v>
+        <v>1.035045195617811</v>
       </c>
       <c r="L10">
-        <v>1.029493612441292</v>
+        <v>1.028619861793415</v>
       </c>
       <c r="M10">
-        <v>1.040424933077788</v>
+        <v>1.039581130138895</v>
       </c>
       <c r="N10">
-        <v>1.027201899868485</v>
+        <v>1.02385579272114</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.040617318658233</v>
+        <v>1.039949546456406</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036629173856634</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035899301891356</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02164950226988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9952323321256867</v>
+        <v>0.9944929633132708</v>
       </c>
       <c r="D11">
-        <v>1.020848175988029</v>
+        <v>1.020060239944072</v>
       </c>
       <c r="E11">
-        <v>1.013934841822187</v>
+        <v>1.013341442551547</v>
       </c>
       <c r="F11">
-        <v>1.025418245576382</v>
+        <v>1.024815015046753</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044953567081276</v>
+        <v>1.04467313325802</v>
       </c>
       <c r="J11">
-        <v>1.024804805561961</v>
+        <v>1.024096649690538</v>
       </c>
       <c r="K11">
-        <v>1.035387352380834</v>
+        <v>1.034613512132848</v>
       </c>
       <c r="L11">
-        <v>1.02859866662492</v>
+        <v>1.028016069576086</v>
       </c>
       <c r="M11">
-        <v>1.039876219621698</v>
+        <v>1.039283653657632</v>
       </c>
       <c r="N11">
-        <v>1.026260145932614</v>
+        <v>1.023962542188385</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040618208530896</v>
+        <v>1.040149496032277</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.036161631466165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035630105145208</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021617864812728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9946035751795052</v>
+        <v>0.99396447853855</v>
       </c>
       <c r="D12">
-        <v>1.020554371579709</v>
+        <v>1.019843882768851</v>
       </c>
       <c r="E12">
-        <v>1.013605903179277</v>
+        <v>1.013095961800859</v>
       </c>
       <c r="F12">
-        <v>1.025304898869765</v>
+        <v>1.024773802130056</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044943310615131</v>
+        <v>1.044694482680244</v>
       </c>
       <c r="J12">
-        <v>1.024638090446419</v>
+        <v>1.024026487309098</v>
       </c>
       <c r="K12">
-        <v>1.035298099869699</v>
+        <v>1.034600530652236</v>
       </c>
       <c r="L12">
-        <v>1.028476996792292</v>
+        <v>1.027976492356371</v>
       </c>
       <c r="M12">
-        <v>1.039962840898357</v>
+        <v>1.039441283530327</v>
       </c>
       <c r="N12">
-        <v>1.026093194062485</v>
+        <v>1.024116216534029</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041012359608487</v>
+        <v>1.040599953105875</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.036098527245867</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035620927026319</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021651940453515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9951548062345488</v>
+        <v>0.9944052763660746</v>
       </c>
       <c r="D13">
-        <v>1.021006185310699</v>
+        <v>1.020203104925853</v>
       </c>
       <c r="E13">
-        <v>1.014141175805305</v>
+        <v>1.013535832433591</v>
       </c>
       <c r="F13">
-        <v>1.02596432389369</v>
+        <v>1.025351577604543</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045125755122688</v>
+        <v>1.044833535020769</v>
       </c>
       <c r="J13">
-        <v>1.025072271508556</v>
+        <v>1.024354822097196</v>
       </c>
       <c r="K13">
-        <v>1.035698988485092</v>
+        <v>1.034910447557899</v>
       </c>
       <c r="L13">
-        <v>1.028959235307271</v>
+        <v>1.028365042887682</v>
       </c>
       <c r="M13">
-        <v>1.040568016406954</v>
+        <v>1.03996622215327</v>
       </c>
       <c r="N13">
-        <v>1.026527991711531</v>
+        <v>1.024257628910774</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041766929996152</v>
+        <v>1.041291197632267</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03637947940366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035837311702003</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021740451195018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9960764605331915</v>
+        <v>0.995157289545028</v>
       </c>
       <c r="D14">
-        <v>1.021661979981758</v>
+        <v>1.020719685203023</v>
       </c>
       <c r="E14">
-        <v>1.014908125375545</v>
+        <v>1.014157970752225</v>
       </c>
       <c r="F14">
-        <v>1.026776941311011</v>
+        <v>1.026039872670309</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045341221696715</v>
+        <v>1.044986227602247</v>
       </c>
       <c r="J14">
-        <v>1.025649267970207</v>
+        <v>1.024768872128511</v>
       </c>
       <c r="K14">
-        <v>1.036203076426356</v>
+        <v>1.035277629237464</v>
       </c>
       <c r="L14">
-        <v>1.029570875752427</v>
+        <v>1.028834363407428</v>
       </c>
       <c r="M14">
-        <v>1.041227285195207</v>
+        <v>1.040503221687441</v>
       </c>
       <c r="N14">
-        <v>1.02710580757434</v>
+        <v>1.024354384011568</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042461039498119</v>
+        <v>1.041888727485974</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03673730686371</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036098476429471</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021828573821539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9965628757310901</v>
+        <v>0.9955586326546483</v>
       </c>
       <c r="D15">
-        <v>1.021991123478983</v>
+        <v>1.020979650566783</v>
       </c>
       <c r="E15">
-        <v>1.015290621137976</v>
+        <v>1.014468279717568</v>
       </c>
       <c r="F15">
-        <v>1.027155277438645</v>
+        <v>1.026356131873416</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045438959998839</v>
+        <v>1.045053357495507</v>
       </c>
       <c r="J15">
-        <v>1.025927386403361</v>
+        <v>1.024965137017438</v>
       </c>
       <c r="K15">
-        <v>1.036440210434797</v>
+        <v>1.035446685152651</v>
       </c>
       <c r="L15">
-        <v>1.02985946813169</v>
+        <v>1.029051966368616</v>
       </c>
       <c r="M15">
-        <v>1.041513445018593</v>
+        <v>1.040728291571058</v>
       </c>
       <c r="N15">
-        <v>1.027384320967569</v>
+        <v>1.024384303964911</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042724684355466</v>
+        <v>1.042104102119691</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036910826685362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036224434881696</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.0218649640538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9990593592479504</v>
+        <v>0.9976576110670674</v>
       </c>
       <c r="D16">
-        <v>1.023595721755427</v>
+        <v>1.022262251203293</v>
       </c>
       <c r="E16">
-        <v>1.017161321772105</v>
+        <v>1.016003682280792</v>
       </c>
       <c r="F16">
-        <v>1.02888972440895</v>
+        <v>1.027801261752475</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045860727399416</v>
+        <v>1.045335589522476</v>
       </c>
       <c r="J16">
-        <v>1.027233442412337</v>
+        <v>1.025887389785464</v>
       </c>
       <c r="K16">
-        <v>1.037516161628978</v>
+        <v>1.036205327343046</v>
       </c>
       <c r="L16">
-        <v>1.031191696776337</v>
+        <v>1.030054027342947</v>
       </c>
       <c r="M16">
-        <v>1.042721042196751</v>
+        <v>1.041650806653234</v>
       </c>
       <c r="N16">
-        <v>1.028692231725885</v>
+        <v>1.024497083860052</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043640531831967</v>
+        <v>1.042794597758081</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037674718687178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.0367642827881</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022005630221831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000493127713809</v>
+        <v>0.9988967532320744</v>
       </c>
       <c r="D17">
-        <v>1.024484220612672</v>
+        <v>1.022992317430918</v>
       </c>
       <c r="E17">
-        <v>1.018195826218449</v>
+        <v>1.016874759998201</v>
       </c>
       <c r="F17">
-        <v>1.029791652425203</v>
+        <v>1.028561335070182</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04606879923196</v>
+        <v>1.045476238922696</v>
       </c>
       <c r="J17">
-        <v>1.027932368931761</v>
+        <v>1.02639739370316</v>
       </c>
       <c r="K17">
-        <v>1.038076152805499</v>
+        <v>1.036608870336673</v>
       </c>
       <c r="L17">
-        <v>1.031892165118638</v>
+        <v>1.030593244276606</v>
       </c>
       <c r="M17">
-        <v>1.043296739518803</v>
+        <v>1.042086451213835</v>
       </c>
       <c r="N17">
-        <v>1.029392150801134</v>
+        <v>1.024595209195226</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043966837582585</v>
+        <v>1.04301010820594</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.038073233531053</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037052434833827</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022070762252305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001134496002653</v>
+        <v>0.9994730366557778</v>
       </c>
       <c r="D18">
-        <v>1.024819390116684</v>
+        <v>1.023274940454473</v>
       </c>
       <c r="E18">
-        <v>1.01858440027269</v>
+        <v>1.017209418889193</v>
       </c>
       <c r="F18">
-        <v>1.0300237750895</v>
+        <v>1.028745925112458</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046104859760601</v>
+        <v>1.045491346933892</v>
       </c>
       <c r="J18">
-        <v>1.028154711852826</v>
+        <v>1.02655596682384</v>
       </c>
       <c r="K18">
-        <v>1.038223032767871</v>
+        <v>1.036703658411605</v>
       </c>
       <c r="L18">
-        <v>1.032089872308717</v>
+        <v>1.030737563202312</v>
       </c>
       <c r="M18">
-        <v>1.043343630475539</v>
+        <v>1.042086252353533</v>
       </c>
       <c r="N18">
-        <v>1.02961480947465</v>
+        <v>1.024601824574626</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043766837124784</v>
+        <v>1.042772677017666</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038165474310828</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037106701517621</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022064382674948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001077651355524</v>
+        <v>0.9994483240196722</v>
       </c>
       <c r="D19">
-        <v>1.024676834235842</v>
+        <v>1.023161016393728</v>
       </c>
       <c r="E19">
-        <v>1.018403865111375</v>
+        <v>1.017057101051474</v>
       </c>
       <c r="F19">
-        <v>1.029663555715805</v>
+        <v>1.028409486467273</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045998739785621</v>
+        <v>1.045399572888629</v>
       </c>
       <c r="J19">
-        <v>1.027965618512142</v>
+        <v>1.026397439994826</v>
       </c>
       <c r="K19">
-        <v>1.038020452359847</v>
+        <v>1.036529121615576</v>
       </c>
       <c r="L19">
-        <v>1.031849427699679</v>
+        <v>1.030524761311967</v>
       </c>
       <c r="M19">
-        <v>1.042927268397919</v>
+        <v>1.04169320040961</v>
       </c>
       <c r="N19">
-        <v>1.029425447599734</v>
+        <v>1.024489766426967</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043113068521017</v>
+        <v>1.04213702146944</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038028624216474</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03699030973479</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021997528939419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9990507361302233</v>
+        <v>0.9977216861166087</v>
       </c>
       <c r="D20">
-        <v>1.023179842625214</v>
+        <v>1.021916610068815</v>
       </c>
       <c r="E20">
-        <v>1.016628275984873</v>
+        <v>1.0155367686128</v>
       </c>
       <c r="F20">
-        <v>1.027669043948167</v>
+        <v>1.026635937442153</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045489072602412</v>
+        <v>1.045002304793954</v>
       </c>
       <c r="J20">
-        <v>1.026618299413499</v>
+        <v>1.025340716329757</v>
       </c>
       <c r="K20">
-        <v>1.036826990679508</v>
+        <v>1.035584727046137</v>
       </c>
       <c r="L20">
-        <v>1.030384905855265</v>
+        <v>1.029311815539524</v>
       </c>
       <c r="M20">
-        <v>1.041242210181367</v>
+        <v>1.040226055508924</v>
       </c>
       <c r="N20">
-        <v>1.02807621515343</v>
+        <v>1.02402034811641</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.04125358375759</v>
+        <v>1.040449405518401</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037188719244772</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036326896274326</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021757215152456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9943409857919187</v>
+        <v>0.9938304004943436</v>
       </c>
       <c r="D21">
-        <v>1.020102123422605</v>
+        <v>1.019501843537791</v>
       </c>
       <c r="E21">
-        <v>1.013035736994967</v>
+        <v>1.012639798749782</v>
       </c>
       <c r="F21">
-        <v>1.024268452524913</v>
+        <v>1.023833422378739</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044646906121692</v>
+        <v>1.044454089914333</v>
       </c>
       <c r="J21">
-        <v>1.024077228374812</v>
+        <v>1.023588354204542</v>
       </c>
       <c r="K21">
-        <v>1.034712407069409</v>
+        <v>1.034122932954274</v>
       </c>
       <c r="L21">
-        <v>1.027774281526709</v>
+        <v>1.027385598868273</v>
       </c>
       <c r="M21">
-        <v>1.038804190175057</v>
+        <v>1.038376906977045</v>
       </c>
       <c r="N21">
-        <v>1.025531535502405</v>
+        <v>1.023848508832541</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.039283303071824</v>
+        <v>1.038945136417308</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.035696859001574</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.035296904113499</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021478220455481</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9913437481143482</v>
+        <v>0.9913410815315195</v>
       </c>
       <c r="D22">
-        <v>1.018152081221183</v>
+        <v>1.017967582101413</v>
       </c>
       <c r="E22">
-        <v>1.010767862555518</v>
+        <v>1.010804777464852</v>
       </c>
       <c r="F22">
-        <v>1.02213909414342</v>
+        <v>1.022077676596946</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044105250628919</v>
+        <v>1.044097506326632</v>
       </c>
       <c r="J22">
-        <v>1.022468631170498</v>
+        <v>1.022466084576521</v>
       </c>
       <c r="K22">
-        <v>1.03337231932463</v>
+        <v>1.033191307673854</v>
       </c>
       <c r="L22">
-        <v>1.026128982057571</v>
+        <v>1.026165185972869</v>
       </c>
       <c r="M22">
-        <v>1.037284369773633</v>
+        <v>1.037224101189622</v>
       </c>
       <c r="N22">
-        <v>1.023920653905551</v>
+        <v>1.023691960955591</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.038080464080661</v>
+        <v>1.038032765374895</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034735871285541</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034623409729772</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021299604854245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9929276505588764</v>
+        <v>0.9926236957185687</v>
       </c>
       <c r="D23">
-        <v>1.019176623243992</v>
+        <v>1.018746825575193</v>
       </c>
       <c r="E23">
-        <v>1.011963833994987</v>
+        <v>1.011743207455314</v>
       </c>
       <c r="F23">
-        <v>1.023261790515766</v>
+        <v>1.022978790964711</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044388421192891</v>
+        <v>1.0442706760909</v>
       </c>
       <c r="J23">
-        <v>1.023314311233668</v>
+        <v>1.023023633042261</v>
       </c>
       <c r="K23">
-        <v>1.034073281404956</v>
+        <v>1.033651402254846</v>
       </c>
       <c r="L23">
-        <v>1.026994542458049</v>
+        <v>1.026778055622279</v>
       </c>
       <c r="M23">
-        <v>1.038083616450786</v>
+        <v>1.037805775816708</v>
       </c>
       <c r="N23">
-        <v>1.024767534931412</v>
+        <v>1.023684221328469</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.038713016090599</v>
+        <v>1.038493123276699</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.035221854448489</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034938146339711</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02138302328896</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9990624149005191</v>
+        <v>0.9977344044100628</v>
       </c>
       <c r="D24">
-        <v>1.023164658057522</v>
+        <v>1.021902296425097</v>
       </c>
       <c r="E24">
-        <v>1.016615828918166</v>
+        <v>1.01552529678874</v>
       </c>
       <c r="F24">
-        <v>1.027631091678722</v>
+        <v>1.026598687826522</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045472184369724</v>
+        <v>1.044986096958836</v>
       </c>
       <c r="J24">
-        <v>1.026596604224205</v>
+        <v>1.0253199463733</v>
       </c>
       <c r="K24">
-        <v>1.036796832203154</v>
+        <v>1.035555398972091</v>
       </c>
       <c r="L24">
-        <v>1.030357302655414</v>
+        <v>1.029285148070048</v>
       </c>
       <c r="M24">
-        <v>1.041189748529227</v>
+        <v>1.040174264902449</v>
       </c>
       <c r="N24">
-        <v>1.028054489154479</v>
+        <v>1.024000757226498</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041171313278142</v>
+        <v>1.040367626373951</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.037140039057499</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036276111839979</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021744967523118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005951291178242</v>
+        <v>1.00396288303916</v>
       </c>
       <c r="D25">
-        <v>1.027662663551085</v>
+        <v>1.025827631740368</v>
       </c>
       <c r="E25">
-        <v>1.021872309055706</v>
+        <v>1.020225481911216</v>
       </c>
       <c r="F25">
-        <v>1.032572188762726</v>
+        <v>1.031046977810497</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046647554553039</v>
+        <v>1.045918046316184</v>
       </c>
       <c r="J25">
-        <v>1.030280017231584</v>
+        <v>1.02835761243193</v>
       </c>
       <c r="K25">
-        <v>1.039846209900046</v>
+        <v>1.038037813580243</v>
       </c>
       <c r="L25">
-        <v>1.034140315423334</v>
+        <v>1.032517731858184</v>
       </c>
       <c r="M25">
-        <v>1.044685062588307</v>
+        <v>1.043181715756279</v>
       </c>
       <c r="N25">
-        <v>1.031743133030822</v>
+        <v>1.025608316362882</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043937612151067</v>
+        <v>1.042747818597807</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03929323980792</v>
+        <v>1.038028135026556</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022253739909779</v>
       </c>
     </row>
   </sheetData>
